--- a/src/test/CIFData.xlsx
+++ b/src/test/CIFData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.allcloud\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AB7C82-3899-4B11-8833-6D3970BC82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442D1079-2776-4973-BEB4-99609B918990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E3C86A1-E698-4E9D-8755-880508508CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{AD6DC51B-60A4-4D8E-86BD-064C3BE8F385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>25027</t>
-  </si>
-  <si>
-    <t>25028</t>
-  </si>
-  <si>
-    <t>25029</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="12">
+  <si>
+    <t>25013</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25018</t>
+  </si>
+  <si>
+    <t>205147</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>25020</t>
+  </si>
+  <si>
+    <t>31001</t>
+  </si>
+  <si>
+    <t>31002</t>
+  </si>
+  <si>
+    <t>31003</t>
+  </si>
+  <si>
+    <t>31004</t>
   </si>
 </sst>
 </file>
@@ -395,31 +419,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64EADC-2100-40B7-B73F-15E378A1225B}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AD2E70-CADA-4CBE-88F5-D5FEB60E73BC}">
+  <dimension ref="A1:A119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
